--- a/biology/Botanique/Edward_George_Hudson_Oliver/Edward_George_Hudson_Oliver.xlsx
+++ b/biology/Botanique/Edward_George_Hudson_Oliver/Edward_George_Hudson_Oliver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward George Hudson Oliver, dit Ted Oliver, est un botaniste de nationalité sud-africaine né en 1938. Spécialiste des Ericoidae, il est chercheur à l'Institut botanique national de Kirstenbosch.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oliver est né le 14 octobre 1938 à Rondebosch. Il a fait ses études au Bishops College de 1947 à 1957. Il a obtenu une maîtrise en sciences et un doctorat (en botanique) de l'Université du Cap.
 De 1946 à 1966, il a été nommé conservateur de l'herbier du gouvernement à Stellenbosch. Il était le botaniste de liaison sud-africain au Royal Botanic Gardens de Kew à Londres de 1967 à 1969. 
@@ -545,7 +559,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de l’histoire de la zoologie et de la botanique   Portail de l’Afrique du Sud   Portail de la botanique                   
 E.G.H.Oliv. est l’abréviation botanique standard de Edward George Hudson Oliver.
